--- a/biology/Histoire de la zoologie et de la botanique/Robert_Sténuit/Robert_Sténuit.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Robert_Sténuit/Robert_Sténuit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Robert_St%C3%A9nuit</t>
+          <t>Robert_Sténuit</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Pierre André Sténuit (né en 1933) est un plongeur, archéologue sous-marin, journaliste et écrivain belge.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Robert_St%C3%A9nuit</t>
+          <t>Robert_Sténuit</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Après des études en sciences politiques, Robert Sténuit se lance d'abord dans la spéléologie et la plongée souterraine, à partir de 1950.
 En 1962, il participe au projet Man in Sea à Villefranche-sur-Mer pour établir un record historique, 24 heures par 60 m de fond. L’idée était de prouver qu’après l’espace, l’homme pouvait vivre sous l’eau pour de longues périodes, devenir un Aquanaute. Deux ans plus tard il devient « L’Homme le plus profond» en passant 49 heures à 130 m de profondeur, en saturation, dans une maison sous la mer. Il devient ensuite plongeur d’essai et participe à de nombreuses simulations pour mettre au point les nouvelles tables de désaturation et tester le mélange Oxygène / Hélium pour des plongées de plus en plus profondes.
 C’est aussi à cette époque qu’il se lance dans l’archéologie sous-marine et la recherche d’épaves. Entre beaucoup d’autres, il découvre et fouille en 1967 la première épave retrouvée de l’Invincible Armada, la galéasse Girona, perdue en 1588 sur la côte d’Irlande du Nord. Il s’agit du plus important trésor de l’Armada jamais découvert.
 En tout, une vingtaine d’épaves, d’époques et d’origines différentes sont sorties des eaux grâce au travail de Robert Sténuit, et avec elles, ce sont des cargaisons d’or et d’argent, de lingots et de pièces, de bijoux et de merveilles, qui ont refait surface.
-En 1967, il publie un ouvrage de delphinologie[1].
+En 1967, il publie un ouvrage de delphinologie.
 Il a créé, en collaboration avec Henri Delauze, (président de la COMEX) le Groupe de recherche archéologique sous-marine post-médiéval, le GRASP. Les travaux du GRASP sont publiés dans l'International Journal of Nautical Archaeology (Londres). Ils ont été, en outre, le sujet de plusieurs livres et de nombreux articles de vulgarisation (notamment dans le National Geographic Magazine). Ils ont également fait l'objet de programmes de télévision, de conférences etc.
 Ils ont valu au Directeur-Fondateur du Groupe, M. Robert Sténuit, un doctorat Honoris Causa en Science de la Nouvelle Université d'Ulster (Coleraine) « pour avoir contribué à faire de l'archéologie sous-marine une discipline scientifique »
 [réf. nécessaire]
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Robert_St%C3%A9nuit</t>
+          <t>Robert_Sténuit</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,53 +567,128 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Navires de commerce
-Frégate Wendela, Cie. Asiatique Danoise, 1737, Fetlar (Shetland)
+          <t>Navires de commerce</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Frégate Wendela, Cie. Asiatique Danoise, 1737, Fetlar (Shetland)
 Flûte Lastdrager, V.O.C., 1653, Yell (Shetland)
 Navire Slot Ter Hooge, V.O.C., 1724, Porto Santo (Madère)
 Navire Witte Leeuw, V.O.C., 1613, Ile de Ste. Hélène (Atlantique Sud)
 Navire De Boot, V.O.C., 1738, Sud Devon (Royaume-Uni)
 Navire Winterton, E.E.I.C., 1792, Salary (Madagascar)
 Steamer Meï-Kong, Messageries Maritimes, 1877, Cap Guardafui (Somalie)
-Navire Nuestra Señora de la Asumpción y las Animas, Carrera de Indias, 1681 (Panama)
-Navires de guerre
-Galéasse La Girona, Invincible Armada, 1588 (Irlande du Nord)
+Navire Nuestra Señora de la Asumpción y las Animas, Carrera de Indias, 1681 (Panama)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Robert_Sténuit</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Robert_St%C3%A9nuit</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Épaves retrouvées et découvertes de Robert Sténuit</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Navires de guerre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Galéasse La Girona, Invincible Armada, 1588 (Irlande du Nord)
 Frégate Athénienne, Royal Navy, 1806, Esquerquiz (Méditerranée)
 Cotre Sprightly, Royal Navy, 1777, Guernesey (Iles Anglo-Normandes)
 Navire Curaçao, Admiraliteit Amsterdam, 1729, Unst (Shetland)
 Pinque Evsyaffi, Marine Impériale Russe, 1780, Grif Skerry (Shetland)
 Frégate Thétis, Royal Navy, 1830, Cabo Frio (Brésil)
-Navire Nossa Senhora do Monte do Carmo, Marine Royale Portugaise, 1775, Salary (Madagascar)
-Divers
-Récupération d’une statue grecque en bronze (L’Apoxyomène de Croatie), IVe – IIIe siècle av. J.-C., Vele Orjule (Croatie)</t>
+Navire Nossa Senhora do Monte do Carmo, Marine Royale Portugaise, 1775, Salary (Madagascar)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Robert_St%C3%A9nuit</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Robert_Sténuit</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Robert_St%C3%A9nuit</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Épaves retrouvées et découvertes de Robert Sténuit</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Récupération d’une statue grecque en bronze (L’Apoxyomène de Croatie), IVe – IIIe siècle av. J.-C., Vele Orjule (Croatie)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Robert_Sténuit</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Robert_St%C3%A9nuit</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>[réf. incomplète]
 Trésors des mers, l'histoire engloutie, Éditions du Trésor
@@ -617,31 +706,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Robert_St%C3%A9nuit</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Robert_Sténuit</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Robert_St%C3%A9nuit</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Docteur honoris causa de la New University of Ulster « pour avoir contribué à placer l’archéologie sous-marine sur une base scientifique ».
 Lauréat du Premio Maurizio Sarra (Rome), 1964.
